--- a/templates/AutomationOrg/RSTK-9230_Cost Transaction Query.xlsx
+++ b/templates/AutomationOrg/RSTK-9230_Cost Transaction Query.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D45E94B-34BC-4E58-A904-E5BFFBB00415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0982C2A5-75C0-4DDB-904C-E492013CC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB51E305-5BC0-4BB2-AE6B-CC4DBF74AF6A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t xml:space="preserve">Inventory Item Master	</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>INVLOCADJ</t>
+  </si>
+  <si>
+    <t>INVLOCADD</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,6 +484,9 @@
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
